--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ncam1-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ncam1-Fgfr1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5869213333333333</v>
+        <v>1.296878333333333</v>
       </c>
       <c r="H2">
-        <v>1.760764</v>
+        <v>3.890635</v>
       </c>
       <c r="I2">
-        <v>0.01834079054277507</v>
+        <v>0.01774073260139904</v>
       </c>
       <c r="J2">
-        <v>0.02446997850397404</v>
+        <v>0.02506266560199287</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.743825</v>
+        <v>5.978421000000001</v>
       </c>
       <c r="N2">
-        <v>20.231475</v>
+        <v>17.935263</v>
       </c>
       <c r="O2">
-        <v>0.06175298453338176</v>
+        <v>0.05704457007880161</v>
       </c>
       <c r="P2">
-        <v>0.06809253940846915</v>
+        <v>0.06242884486533885</v>
       </c>
       <c r="Q2">
-        <v>3.958094760766667</v>
+        <v>7.753284662445001</v>
       </c>
       <c r="R2">
-        <v>35.6228528469</v>
+        <v>69.779561962005</v>
       </c>
       <c r="S2">
-        <v>0.001132598554717983</v>
+        <v>0.001012012464129788</v>
       </c>
       <c r="T2">
-        <v>0.001666222975606246</v>
+        <v>0.001564633262778677</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5869213333333333</v>
+        <v>1.296878333333333</v>
       </c>
       <c r="H3">
-        <v>1.760764</v>
+        <v>3.890635</v>
       </c>
       <c r="I3">
-        <v>0.01834079054277507</v>
+        <v>0.01774073260139904</v>
       </c>
       <c r="J3">
-        <v>0.02446997850397404</v>
+        <v>0.02506266560199287</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>208.973595</v>
       </c>
       <c r="O3">
-        <v>0.6378547871531949</v>
+        <v>0.6646576013185088</v>
       </c>
       <c r="P3">
-        <v>0.7033368922862506</v>
+        <v>0.7273927426214574</v>
       </c>
       <c r="Q3">
-        <v>40.88368700295333</v>
+        <v>90.33777586475834</v>
       </c>
       <c r="R3">
-        <v>367.95318302658</v>
+        <v>813.0399827828249</v>
       </c>
       <c r="S3">
-        <v>0.01169876104788312</v>
+        <v>0.01179151277647895</v>
       </c>
       <c r="T3">
-        <v>0.01721063863529646</v>
+        <v>0.01823040106963805</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5869213333333333</v>
+        <v>1.296878333333333</v>
       </c>
       <c r="H4">
-        <v>1.760764</v>
+        <v>3.890635</v>
       </c>
       <c r="I4">
-        <v>0.01834079054277507</v>
+        <v>0.01774073260139904</v>
       </c>
       <c r="J4">
-        <v>0.02446997850397404</v>
+        <v>0.02506266560199287</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.263827666666667</v>
+        <v>1.290243</v>
       </c>
       <c r="N4">
-        <v>3.791482999999999</v>
+        <v>3.870729</v>
       </c>
       <c r="O4">
-        <v>0.01157282852869501</v>
+        <v>0.01231116999491725</v>
       </c>
       <c r="P4">
-        <v>0.01276089388411081</v>
+        <v>0.01347318632889677</v>
       </c>
       <c r="Q4">
-        <v>0.7417674192235555</v>
+        <v>1.673288191435</v>
       </c>
       <c r="R4">
-        <v>6.675906773011999</v>
+        <v>15.059593722915</v>
       </c>
       <c r="S4">
-        <v>0.0002122548240322469</v>
+        <v>0.0002184091748901942</v>
       </c>
       <c r="T4">
-        <v>0.0003122587990356854</v>
+        <v>0.0003376739635544818</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5869213333333333</v>
+        <v>1.296878333333333</v>
       </c>
       <c r="H5">
-        <v>1.760764</v>
+        <v>3.890635</v>
       </c>
       <c r="I5">
-        <v>0.01834079054277507</v>
+        <v>0.01774073260139904</v>
       </c>
       <c r="J5">
-        <v>0.02446997850397404</v>
+        <v>0.02506266560199287</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.502036</v>
+        <v>27.1166075</v>
       </c>
       <c r="N5">
-        <v>61.004072</v>
+        <v>54.233215</v>
       </c>
       <c r="O5">
-        <v>0.2793061441162328</v>
+        <v>0.2587397603536297</v>
       </c>
       <c r="P5">
-        <v>0.205319788929729</v>
+        <v>0.1887743138075849</v>
       </c>
       <c r="Q5">
-        <v>17.90229563850133</v>
+        <v>35.16694074025417</v>
       </c>
       <c r="R5">
-        <v>107.413773831008</v>
+        <v>211.001644441525</v>
       </c>
       <c r="S5">
-        <v>0.005122695486545972</v>
+        <v>0.004590232901783812</v>
       </c>
       <c r="T5">
-        <v>0.005024170821550957</v>
+        <v>0.004731187501205167</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5869213333333333</v>
+        <v>1.296878333333333</v>
       </c>
       <c r="H6">
-        <v>1.760764</v>
+        <v>3.890635</v>
       </c>
       <c r="I6">
-        <v>0.01834079054277507</v>
+        <v>0.01774073260139904</v>
       </c>
       <c r="J6">
-        <v>0.02446997850397404</v>
+        <v>0.02506266560199287</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.038909</v>
+        <v>0.759494</v>
       </c>
       <c r="N6">
-        <v>3.116727</v>
+        <v>2.278482</v>
       </c>
       <c r="O6">
-        <v>0.009513255668495419</v>
+        <v>0.00724689825414258</v>
       </c>
       <c r="P6">
-        <v>0.01048988549144043</v>
+        <v>0.007930912376722157</v>
       </c>
       <c r="Q6">
-        <v>0.609757855492</v>
+        <v>0.9849713128966667</v>
       </c>
       <c r="R6">
-        <v>5.487820699428</v>
+        <v>8.86474181607</v>
       </c>
       <c r="S6">
-        <v>0.0001744806295957421</v>
+        <v>0.000128565284116289</v>
       </c>
       <c r="T6">
-        <v>0.0002566872724846966</v>
+        <v>0.0001987698048164939</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>21.806844</v>
       </c>
       <c r="I7">
-        <v>0.2271484186426865</v>
+        <v>0.09943605305674341</v>
       </c>
       <c r="J7">
-        <v>0.3030576522007011</v>
+        <v>0.1404751766759988</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.743825</v>
+        <v>5.978421000000001</v>
       </c>
       <c r="N7">
-        <v>20.231475</v>
+        <v>17.935263</v>
       </c>
       <c r="O7">
-        <v>0.06175298453338176</v>
+        <v>0.05704457007880161</v>
       </c>
       <c r="P7">
-        <v>0.06809253940846915</v>
+        <v>0.06242884486533885</v>
       </c>
       <c r="Q7">
-        <v>49.02051324609999</v>
+        <v>43.456831371108</v>
       </c>
       <c r="R7">
-        <v>441.1846192149</v>
+        <v>391.111482339972</v>
       </c>
       <c r="S7">
-        <v>0.01402709278322394</v>
+        <v>0.005672286896954835</v>
       </c>
       <c r="T7">
-        <v>0.02063596512551438</v>
+        <v>0.008769703012136995</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>21.806844</v>
       </c>
       <c r="I8">
-        <v>0.2271484186426865</v>
+        <v>0.09943605305674341</v>
       </c>
       <c r="J8">
-        <v>0.3030576522007011</v>
+        <v>0.1404751766759988</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>208.973595</v>
       </c>
       <c r="O8">
-        <v>0.6378547871531949</v>
+        <v>0.6646576013185088</v>
       </c>
       <c r="P8">
-        <v>0.7033368922862506</v>
+        <v>0.7273927426214574</v>
       </c>
       <c r="Q8">
         <v>506.3393984760199</v>
@@ -948,10 +948,10 @@
         <v>4557.054586284179</v>
       </c>
       <c r="S8">
-        <v>0.1448877062255156</v>
+        <v>0.06609092850927505</v>
       </c>
       <c r="T8">
-        <v>0.2131516272824085</v>
+        <v>0.1021806240325885</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>21.806844</v>
       </c>
       <c r="I9">
-        <v>0.2271484186426865</v>
+        <v>0.09943605305674341</v>
       </c>
       <c r="J9">
-        <v>0.3030576522007011</v>
+        <v>0.1404751766759988</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.263827666666667</v>
+        <v>1.290243</v>
       </c>
       <c r="N9">
-        <v>3.791482999999999</v>
+        <v>3.870729</v>
       </c>
       <c r="O9">
-        <v>0.01157282852869501</v>
+        <v>0.01231116999491725</v>
       </c>
       <c r="P9">
-        <v>0.01276089388411081</v>
+        <v>0.01347318632889677</v>
       </c>
       <c r="Q9">
-        <v>9.186697589961332</v>
+        <v>9.378709274363999</v>
       </c>
       <c r="R9">
-        <v>82.68027830965198</v>
+        <v>84.40838346927599</v>
       </c>
       <c r="S9">
-        <v>0.002628749699516039</v>
+        <v>0.00122417415280518</v>
       </c>
       <c r="T9">
-        <v>0.003867286540500908</v>
+        <v>0.001892648229940426</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>21.806844</v>
       </c>
       <c r="I10">
-        <v>0.2271484186426865</v>
+        <v>0.09943605305674341</v>
       </c>
       <c r="J10">
-        <v>0.3030576522007011</v>
+        <v>0.1404751766759988</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.502036</v>
+        <v>27.1166075</v>
       </c>
       <c r="N10">
-        <v>61.004072</v>
+        <v>54.233215</v>
       </c>
       <c r="O10">
-        <v>0.2793061441162328</v>
+        <v>0.2587397603536297</v>
       </c>
       <c r="P10">
-        <v>0.205319788929729</v>
+        <v>0.1887743138075849</v>
       </c>
       <c r="Q10">
-        <v>221.717713578128</v>
+        <v>197.10920985391</v>
       </c>
       <c r="R10">
-        <v>1330.306281468768</v>
+        <v>1182.65525912346</v>
       </c>
       <c r="S10">
-        <v>0.06344394895318857</v>
+        <v>0.0257280605384126</v>
       </c>
       <c r="T10">
-        <v>0.06222373318338717</v>
+        <v>0.02651810508401093</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>21.806844</v>
       </c>
       <c r="I11">
-        <v>0.2271484186426865</v>
+        <v>0.09943605305674341</v>
       </c>
       <c r="J11">
-        <v>0.3030576522007011</v>
+        <v>0.1404751766759988</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.038909</v>
+        <v>0.759494</v>
       </c>
       <c r="N11">
-        <v>3.116727</v>
+        <v>2.278482</v>
       </c>
       <c r="O11">
-        <v>0.009513255668495419</v>
+        <v>0.00724689825414258</v>
       </c>
       <c r="P11">
-        <v>0.01048988549144043</v>
+        <v>0.007930912376722157</v>
       </c>
       <c r="Q11">
-        <v>7.551775497732</v>
+        <v>5.520722392311999</v>
       </c>
       <c r="R11">
-        <v>67.965979479588</v>
+        <v>49.68650153080799</v>
       </c>
       <c r="S11">
-        <v>0.002160920981242308</v>
+        <v>0.0007206029592957428</v>
       </c>
       <c r="T11">
-        <v>0.003179040068890135</v>
+        <v>0.00111409631732191</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.070339</v>
+        <v>0.09795233333333332</v>
       </c>
       <c r="H12">
-        <v>0.211017</v>
+        <v>0.293857</v>
       </c>
       <c r="I12">
-        <v>0.002198033693308568</v>
+        <v>0.001339945397100812</v>
       </c>
       <c r="J12">
-        <v>0.002932580092490016</v>
+        <v>0.001892965987764162</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.743825</v>
+        <v>5.978421000000001</v>
       </c>
       <c r="N12">
-        <v>20.231475</v>
+        <v>17.935263</v>
       </c>
       <c r="O12">
-        <v>0.06175298453338176</v>
+        <v>0.05704457007880161</v>
       </c>
       <c r="P12">
-        <v>0.06809253940846915</v>
+        <v>0.06242884486533885</v>
       </c>
       <c r="Q12">
-        <v>0.474353906675</v>
+        <v>0.585600286599</v>
       </c>
       <c r="R12">
-        <v>4.269185160075</v>
+        <v>5.270402579391001</v>
       </c>
       <c r="S12">
-        <v>0.000135735140666736</v>
+        <v>7.643660910668489E-05</v>
       </c>
       <c r="T12">
-        <v>0.0001996868255163685</v>
+        <v>0.0001181756799854918</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.070339</v>
+        <v>0.09795233333333332</v>
       </c>
       <c r="H13">
-        <v>0.211017</v>
+        <v>0.293857</v>
       </c>
       <c r="I13">
-        <v>0.002198033693308568</v>
+        <v>0.001339945397100812</v>
       </c>
       <c r="J13">
-        <v>0.002932580092490016</v>
+        <v>0.001892965987764162</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>208.973595</v>
       </c>
       <c r="O13">
-        <v>0.6378547871531949</v>
+        <v>0.6646576013185088</v>
       </c>
       <c r="P13">
-        <v>0.7033368922862506</v>
+        <v>0.7273927426214574</v>
       </c>
       <c r="Q13">
-        <v>4.899664566235</v>
+        <v>6.823150411768332</v>
       </c>
       <c r="R13">
-        <v>44.096981096115</v>
+        <v>61.40835370591499</v>
       </c>
       <c r="S13">
-        <v>0.001402026313600887</v>
+        <v>0.0008906048935348022</v>
       </c>
       <c r="T13">
-        <v>0.002062591768632453</v>
+        <v>0.00137692972152891</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.070339</v>
+        <v>0.09795233333333332</v>
       </c>
       <c r="H14">
-        <v>0.211017</v>
+        <v>0.293857</v>
       </c>
       <c r="I14">
-        <v>0.002198033693308568</v>
+        <v>0.001339945397100812</v>
       </c>
       <c r="J14">
-        <v>0.002932580092490016</v>
+        <v>0.001892965987764162</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.263827666666667</v>
+        <v>1.290243</v>
       </c>
       <c r="N14">
-        <v>3.791482999999999</v>
+        <v>3.870729</v>
       </c>
       <c r="O14">
-        <v>0.01157282852869501</v>
+        <v>0.01231116999491725</v>
       </c>
       <c r="P14">
-        <v>0.01276089388411081</v>
+        <v>0.01347318632889677</v>
       </c>
       <c r="Q14">
-        <v>0.08889637424566665</v>
+        <v>0.126382312417</v>
       </c>
       <c r="R14">
-        <v>0.8000673682109999</v>
+        <v>1.137440811753</v>
       </c>
       <c r="S14">
-        <v>2.543746703295425E-05</v>
+        <v>1.6496295567615E-05</v>
       </c>
       <c r="T14">
-        <v>3.742234336692096E-05</v>
+        <v>2.550428346741068E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.070339</v>
+        <v>0.09795233333333332</v>
       </c>
       <c r="H15">
-        <v>0.211017</v>
+        <v>0.293857</v>
       </c>
       <c r="I15">
-        <v>0.002198033693308568</v>
+        <v>0.001339945397100812</v>
       </c>
       <c r="J15">
-        <v>0.002932580092490016</v>
+        <v>0.001892965987764162</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>30.502036</v>
+        <v>27.1166075</v>
       </c>
       <c r="N15">
-        <v>61.004072</v>
+        <v>54.233215</v>
       </c>
       <c r="O15">
-        <v>0.2793061441162328</v>
+        <v>0.2587397603536297</v>
       </c>
       <c r="P15">
-        <v>0.205319788929729</v>
+        <v>0.1887743138075849</v>
       </c>
       <c r="Q15">
-        <v>2.145482710204</v>
+        <v>2.656134976709166</v>
       </c>
       <c r="R15">
-        <v>12.872896261224</v>
+        <v>15.936809860255</v>
       </c>
       <c r="S15">
-        <v>0.0006139243155155781</v>
+        <v>0.0003466971509328132</v>
       </c>
       <c r="T15">
-        <v>0.0006021167256095752</v>
+        <v>0.0003573433554012769</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.070339</v>
+        <v>0.09795233333333332</v>
       </c>
       <c r="H16">
-        <v>0.211017</v>
+        <v>0.293857</v>
       </c>
       <c r="I16">
-        <v>0.002198033693308568</v>
+        <v>0.001339945397100812</v>
       </c>
       <c r="J16">
-        <v>0.002932580092490016</v>
+        <v>0.001892965987764162</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.038909</v>
+        <v>0.759494</v>
       </c>
       <c r="N16">
-        <v>3.116727</v>
+        <v>2.278482</v>
       </c>
       <c r="O16">
-        <v>0.009513255668495419</v>
+        <v>0.00724689825414258</v>
       </c>
       <c r="P16">
-        <v>0.01048988549144043</v>
+        <v>0.007930912376722157</v>
       </c>
       <c r="Q16">
-        <v>0.073075820151</v>
+        <v>0.07439420945266666</v>
       </c>
       <c r="R16">
-        <v>0.657682381359</v>
+        <v>0.6695478850739999</v>
       </c>
       <c r="S16">
-        <v>2.091045649241165E-05</v>
+        <v>9.710447958896258E-06</v>
       </c>
       <c r="T16">
-        <v>3.076242936469806E-05</v>
+        <v>1.501294738107287E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>24.046532</v>
+        <v>64.06892400000001</v>
       </c>
       <c r="H17">
-        <v>48.093064</v>
+        <v>128.137848</v>
       </c>
       <c r="I17">
-        <v>0.7514335936425405</v>
+        <v>0.8764350668284411</v>
       </c>
       <c r="J17">
-        <v>0.6683668238731867</v>
+        <v>0.8254375019458241</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.743825</v>
+        <v>5.978421000000001</v>
       </c>
       <c r="N17">
-        <v>20.231475</v>
+        <v>17.935263</v>
       </c>
       <c r="O17">
-        <v>0.06175298453338176</v>
+        <v>0.05704457007880161</v>
       </c>
       <c r="P17">
-        <v>0.06809253940846915</v>
+        <v>0.06242884486533885</v>
       </c>
       <c r="Q17">
-        <v>162.1656036649</v>
+        <v>383.0310006890041</v>
       </c>
       <c r="R17">
-        <v>972.9936219893999</v>
+        <v>2298.186004134025</v>
       </c>
       <c r="S17">
-        <v>0.04640326708607127</v>
+        <v>0.04999586158921418</v>
       </c>
       <c r="T17">
-        <v>0.04551079429389833</v>
+        <v>0.05153110975500869</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>24.046532</v>
+        <v>64.06892400000001</v>
       </c>
       <c r="H18">
-        <v>48.093064</v>
+        <v>128.137848</v>
       </c>
       <c r="I18">
-        <v>0.7514335936425405</v>
+        <v>0.8764350668284411</v>
       </c>
       <c r="J18">
-        <v>0.6683668238731867</v>
+        <v>0.8254375019458241</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>208.973595</v>
       </c>
       <c r="O18">
-        <v>0.6378547871531949</v>
+        <v>0.6646576013185088</v>
       </c>
       <c r="P18">
-        <v>0.7033368922862506</v>
+        <v>0.7273927426214574</v>
       </c>
       <c r="Q18">
-        <v>1675.03007977418</v>
+        <v>4462.904458687261</v>
       </c>
       <c r="R18">
-        <v>10050.18047864508</v>
+        <v>26777.42675212356</v>
       </c>
       <c r="S18">
-        <v>0.479305514932623</v>
+        <v>0.5825292292296186</v>
       </c>
       <c r="T18">
-        <v>0.470087044810199</v>
+        <v>0.6004172484029775</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>24.046532</v>
+        <v>64.06892400000001</v>
       </c>
       <c r="H19">
-        <v>48.093064</v>
+        <v>128.137848</v>
       </c>
       <c r="I19">
-        <v>0.7514335936425405</v>
+        <v>0.8764350668284411</v>
       </c>
       <c r="J19">
-        <v>0.6683668238731867</v>
+        <v>0.8254375019458241</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.263827666666667</v>
+        <v>1.290243</v>
       </c>
       <c r="N19">
-        <v>3.791482999999999</v>
+        <v>3.870729</v>
       </c>
       <c r="O19">
-        <v>0.01157282852869501</v>
+        <v>0.01231116999491725</v>
       </c>
       <c r="P19">
-        <v>0.01276089388411081</v>
+        <v>0.01347318632889677</v>
       </c>
       <c r="Q19">
-        <v>30.39067242898533</v>
+        <v>82.66448070853201</v>
       </c>
       <c r="R19">
-        <v>182.344034573912</v>
+        <v>495.9868842511921</v>
       </c>
       <c r="S19">
-        <v>0.008696212129926204</v>
+        <v>0.0107899410972316</v>
       </c>
       <c r="T19">
-        <v>0.008528958115105918</v>
+        <v>0.01112127326657518</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>24.046532</v>
+        <v>64.06892400000001</v>
       </c>
       <c r="H20">
-        <v>48.093064</v>
+        <v>128.137848</v>
       </c>
       <c r="I20">
-        <v>0.7514335936425405</v>
+        <v>0.8764350668284411</v>
       </c>
       <c r="J20">
-        <v>0.6683668238731867</v>
+        <v>0.8254375019458241</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>30.502036</v>
+        <v>27.1166075</v>
       </c>
       <c r="N20">
-        <v>61.004072</v>
+        <v>54.233215</v>
       </c>
       <c r="O20">
-        <v>0.2793061441162328</v>
+        <v>0.2587397603536297</v>
       </c>
       <c r="P20">
-        <v>0.205319788929729</v>
+        <v>0.1887743138075849</v>
       </c>
       <c r="Q20">
-        <v>733.468184739152</v>
+        <v>1737.33186505533</v>
       </c>
       <c r="R20">
-        <v>2933.872738956608</v>
+        <v>6949.327460221321</v>
       </c>
       <c r="S20">
-        <v>0.2098800195997021</v>
+        <v>0.2267685991567082</v>
       </c>
       <c r="T20">
-        <v>0.1372289352052761</v>
+        <v>0.15582139802087</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>24.046532</v>
+        <v>64.06892400000001</v>
       </c>
       <c r="H21">
-        <v>48.093064</v>
+        <v>128.137848</v>
       </c>
       <c r="I21">
-        <v>0.7514335936425405</v>
+        <v>0.8764350668284411</v>
       </c>
       <c r="J21">
-        <v>0.6683668238731867</v>
+        <v>0.8254375019458241</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.038909</v>
+        <v>0.759494</v>
       </c>
       <c r="N21">
-        <v>3.116727</v>
+        <v>2.278482</v>
       </c>
       <c r="O21">
-        <v>0.009513255668495419</v>
+        <v>0.00724689825414258</v>
       </c>
       <c r="P21">
-        <v>0.01048988549144043</v>
+        <v>0.007930912376722157</v>
       </c>
       <c r="Q21">
-        <v>24.982158513588</v>
+        <v>48.659963364456</v>
       </c>
       <c r="R21">
-        <v>149.892951081528</v>
+        <v>291.9597801867361</v>
       </c>
       <c r="S21">
-        <v>0.007148579894217781</v>
+        <v>0.006351435755668365</v>
       </c>
       <c r="T21">
-        <v>0.007011091448707464</v>
+        <v>0.006546472500392756</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.028134</v>
+        <v>0.3690323333333334</v>
       </c>
       <c r="H22">
-        <v>0.084402</v>
+        <v>1.107097</v>
       </c>
       <c r="I22">
-        <v>0.0008791634786895356</v>
+        <v>0.005048202116315478</v>
       </c>
       <c r="J22">
-        <v>0.001172965329648049</v>
+        <v>0.007131689788420014</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.743825</v>
+        <v>5.978421000000001</v>
       </c>
       <c r="N22">
-        <v>20.231475</v>
+        <v>17.935263</v>
       </c>
       <c r="O22">
-        <v>0.06175298453338176</v>
+        <v>0.05704457007880161</v>
       </c>
       <c r="P22">
-        <v>0.06809253940846915</v>
+        <v>0.06242884486533885</v>
       </c>
       <c r="Q22">
-        <v>0.18973077255</v>
+        <v>2.206230651279001</v>
       </c>
       <c r="R22">
-        <v>1.70757695295</v>
+        <v>19.856075861511</v>
       </c>
       <c r="S22">
-        <v>5.429096870182899E-05</v>
+        <v>0.0002879725193961129</v>
       </c>
       <c r="T22">
-        <v>7.987018793382778E-05</v>
+        <v>0.0004452231554289943</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.028134</v>
+        <v>0.3690323333333334</v>
       </c>
       <c r="H23">
-        <v>0.084402</v>
+        <v>1.107097</v>
       </c>
       <c r="I23">
-        <v>0.0008791634786895356</v>
+        <v>0.005048202116315478</v>
       </c>
       <c r="J23">
-        <v>0.001172965329648049</v>
+        <v>0.007131689788420014</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>208.973595</v>
       </c>
       <c r="O23">
-        <v>0.6378547871531949</v>
+        <v>0.6646576013185088</v>
       </c>
       <c r="P23">
-        <v>0.7033368922862506</v>
+        <v>0.7273927426214574</v>
       </c>
       <c r="Q23">
-        <v>1.95975437391</v>
+        <v>25.70600445596833</v>
       </c>
       <c r="R23">
-        <v>17.63778936519</v>
+        <v>231.354040103715</v>
       </c>
       <c r="S23">
-        <v>0.000560778633572376</v>
+        <v>0.003355325909601266</v>
       </c>
       <c r="T23">
-        <v>0.0008249897897141763</v>
+        <v>0.005187539394724276</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.028134</v>
+        <v>0.3690323333333334</v>
       </c>
       <c r="H24">
-        <v>0.084402</v>
+        <v>1.107097</v>
       </c>
       <c r="I24">
-        <v>0.0008791634786895356</v>
+        <v>0.005048202116315478</v>
       </c>
       <c r="J24">
-        <v>0.001172965329648049</v>
+        <v>0.007131689788420014</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.263827666666667</v>
+        <v>1.290243</v>
       </c>
       <c r="N24">
-        <v>3.791482999999999</v>
+        <v>3.870729</v>
       </c>
       <c r="O24">
-        <v>0.01157282852869501</v>
+        <v>0.01231116999491725</v>
       </c>
       <c r="P24">
-        <v>0.01276089388411081</v>
+        <v>0.01347318632889677</v>
       </c>
       <c r="Q24">
-        <v>0.035556527574</v>
+        <v>0.476141384857</v>
       </c>
       <c r="R24">
-        <v>0.320008748166</v>
+        <v>4.285272463713</v>
       </c>
       <c r="S24">
-        <v>1.0174408187565E-05</v>
+        <v>6.21492744226609E-05</v>
       </c>
       <c r="T24">
-        <v>1.496808610137981E-05</v>
+        <v>9.608658535927326E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.028134</v>
+        <v>0.3690323333333334</v>
       </c>
       <c r="H25">
-        <v>0.084402</v>
+        <v>1.107097</v>
       </c>
       <c r="I25">
-        <v>0.0008791634786895356</v>
+        <v>0.005048202116315478</v>
       </c>
       <c r="J25">
-        <v>0.001172965329648049</v>
+        <v>0.007131689788420014</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>30.502036</v>
+        <v>27.1166075</v>
       </c>
       <c r="N25">
-        <v>61.004072</v>
+        <v>54.233215</v>
       </c>
       <c r="O25">
-        <v>0.2793061441162328</v>
+        <v>0.2587397603536297</v>
       </c>
       <c r="P25">
-        <v>0.205319788929729</v>
+        <v>0.1887743138075849</v>
       </c>
       <c r="Q25">
-        <v>0.8581442808240001</v>
+        <v>10.00690493780917</v>
       </c>
       <c r="R25">
-        <v>5.148865684944</v>
+        <v>60.041429626855</v>
       </c>
       <c r="S25">
-        <v>0.0002455557612805879</v>
+        <v>0.001306170605792153</v>
       </c>
       <c r="T25">
-        <v>0.0002408329939052274</v>
+        <v>0.001346279846097549</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.028134</v>
+        <v>0.3690323333333334</v>
       </c>
       <c r="H26">
-        <v>0.084402</v>
+        <v>1.107097</v>
       </c>
       <c r="I26">
-        <v>0.0008791634786895356</v>
+        <v>0.005048202116315478</v>
       </c>
       <c r="J26">
-        <v>0.001172965329648049</v>
+        <v>0.007131689788420014</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.038909</v>
+        <v>0.759494</v>
       </c>
       <c r="N26">
-        <v>3.116727</v>
+        <v>2.278482</v>
       </c>
       <c r="O26">
-        <v>0.009513255668495419</v>
+        <v>0.00724689825414258</v>
       </c>
       <c r="P26">
-        <v>0.01048988549144043</v>
+        <v>0.007930912376722157</v>
       </c>
       <c r="Q26">
-        <v>0.029228665806</v>
+        <v>0.2802778429726667</v>
       </c>
       <c r="R26">
-        <v>0.263057992254</v>
+        <v>2.522500586754</v>
       </c>
       <c r="S26">
-        <v>8.363706947177375E-06</v>
+        <v>3.658380710328552E-05</v>
       </c>
       <c r="T26">
-        <v>1.230427199343771E-05</v>
+        <v>5.656080680992331E-05</v>
       </c>
     </row>
   </sheetData>
